--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3017325.735653664</v>
+        <v>3014990.624451684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.02758288200938</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.57394621780476</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.56003531079918</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>191.1874525866092</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319708</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>197.5555825510231</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.79925355567458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.27311776055042</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>163.354216290388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8253826161909023</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.174086820819</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.211569880407</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>857.9458712736564</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>857.9458712736564</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>446.9599664840488</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820819</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744473</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.0154176992257</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>498.0154176992257</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1552.027992581766</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1552.027992581766</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1552.027992581766</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1262.909655085603</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1008.225166879716</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>718.8079968427559</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>718.8079968427559</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.0154176992257</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.511359413126</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>498.5488424727143</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>140.2831438659638</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>140.2831438659638</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>133.3376431167603</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.250531453059</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1254.111199477248</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>196.9593607670917</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1436.895026588616</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1147.776689092453</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>893.0922008865665</v>
+        <v>896.0145465323093</v>
       </c>
       <c r="W7" t="n">
-        <v>893.0922008865665</v>
+        <v>606.5973764953487</v>
       </c>
       <c r="X7" t="n">
-        <v>665.1026499885492</v>
+        <v>378.6078255973314</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.1026499885492</v>
+        <v>378.6078255973314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2798542473295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>872.3234075408147</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>872.3234075408147</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.4873575891489</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474262</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>94.65038286230612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>94.65038286230612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7257,10 +7257,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241556</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.751134705686</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>84.94186588374652</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>62.35543909864916</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>5.728115292809974</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.1552311778</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819058</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756573</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756593</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756593</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,16 +26445,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646530.3253232262</v>
+        <v>-646530.325323226</v>
       </c>
       <c r="C6" t="n">
         <v>468221.4582526935</v>
       </c>
       <c r="D6" t="n">
-        <v>308800.188254802</v>
+        <v>308800.1882548017</v>
       </c>
       <c r="E6" t="n">
-        <v>250202.4177484868</v>
+        <v>250167.6798230511</v>
       </c>
       <c r="F6" t="n">
-        <v>575614.8795558423</v>
+        <v>575580.1416304067</v>
       </c>
       <c r="G6" t="n">
-        <v>575614.8795558421</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="H6" t="n">
-        <v>575614.8795558421</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="I6" t="n">
-        <v>575614.8795558419</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="J6" t="n">
-        <v>408009.7017458596</v>
+        <v>407974.9638204238</v>
       </c>
       <c r="K6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="L6" t="n">
-        <v>527320.9095476514</v>
+        <v>527286.1716222155</v>
       </c>
       <c r="M6" t="n">
-        <v>490559.8516203301</v>
+        <v>490525.1136948944</v>
       </c>
       <c r="N6" t="n">
-        <v>575614.8795558421</v>
+        <v>575580.1416304066</v>
       </c>
       <c r="O6" t="n">
-        <v>575614.8795558423</v>
+        <v>575580.1416304066</v>
       </c>
       <c r="P6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304065</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.306832697356</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.306832697356</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>386.5201198909446</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.98362620176884</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>395.9876674621548</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.47073239362456</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.7879678454308</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>23.19311344618887</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.438685100379</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.5588624213869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,13 +33977,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676405</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>420.3665478798696</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
